--- a/data/trans_dic/P7A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P7A_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas &gt; 60 años</t>
+          <t>Hogares con personas &gt; 60 años (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,56%</t>
+          <t>25,83%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>26,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>14,83%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19,04%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>16,98%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>14,35%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>15,91%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>14,15%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>15,67%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>13,24%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>24,1%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>20,96%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>14,7%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>16,71%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>16,96%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>17,62%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>19,76%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>17,72%</t>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>16,63%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>16,78%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>19,52%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>25,35%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>17,71%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>17,02%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,2; 22,79</t>
+          <t>11,5; 22,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,95; 25,61</t>
+          <t>13,2; 26,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,81; 27,58</t>
+          <t>11,67; 25,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,96; 35,81</t>
+          <t>18,34; 34,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,84; 22,49</t>
+          <t>18,55; 36,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,02; 24,23</t>
+          <t>9,32; 23,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,6; 20,83</t>
+          <t>12,1; 27,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,18; 22,61</t>
+          <t>11,57; 23,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,7; 20,17</t>
+          <t>9,59; 21,08</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,91; 28,63</t>
+          <t>10,74; 21,58</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,07; 21,44</t>
+          <t>8,6; 18,84</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,78; 22,06</t>
+          <t>16,73; 32,02</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>13,38; 22,42</t>
+          <t>13,96; 29,05</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>15,06; 25,64</t>
+          <t>9,66; 21,86</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>13,14; 24,04</t>
+          <t>13,17; 21,36</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>12,73; 21,46</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>13,04; 21,63</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>14,89; 24,81</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>19,88; 31,71</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>12,93; 23,6</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>12,8; 22,98</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,42%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>24,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>23,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>15,6%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16,87%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
           <t>12,97%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>15,25%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>15,16%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>14,01%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
         <is>
           <t>13,46%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>16,87%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>17,39%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>19,27%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>16,4%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>14,54%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>19,35%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>19,01%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>16,7%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>14,67%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>17,62%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>19,34%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>20,15%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,08; 26,18</t>
+          <t>13,42; 26,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,02; 28,94</t>
+          <t>14,87; 27,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,99; 25,43</t>
+          <t>14,81; 26,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,6; 20,16</t>
+          <t>9,28; 19,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,69; 34,27</t>
+          <t>13,26; 28,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,27; 20,83</t>
+          <t>16,91; 33,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,91; 23,4</t>
+          <t>16,02; 33,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,05; 17,88</t>
+          <t>11,5; 21,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,68; 20,06</t>
+          <t>12,06; 22,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,29; 19,35</t>
+          <t>8,71; 18,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,59; 21,76</t>
+          <t>10,52; 20,73</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,08; 23,33</t>
+          <t>8,65; 19,8</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>12,97; 20,21</t>
+          <t>9,27; 19,21</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>11,15; 18,38</t>
+          <t>11,82; 23,04</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>14,77; 25,04</t>
+          <t>13,43; 21,53</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>14,55; 23,45</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>13,12; 20,76</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>11,37; 18,32</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>13,01; 22,99</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>14,68; 24,65</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>15,1; 25,53</t>
         </is>
       </c>
     </row>
@@ -1025,72 +1194,102 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>9,28%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>16,61%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>18,5%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>10,73%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>10,69%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9,74%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9,77%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>9,71%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>9,65%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>11,16%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>11,4%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>10,51%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>9,75%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>9,84%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>9,65%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>11,4%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>10,15%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>10,72%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>10,89%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>10,99%</t>
         </is>
       </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
         <is>
           <t>13,32%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>15,04%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,55; 17,82</t>
+          <t>8,32; 17,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,29; 14,45</t>
+          <t>6,67; 14,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,26; 16,07</t>
+          <t>8,42; 16,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,69; 16,7</t>
+          <t>8,79; 16,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,38; 22,22</t>
+          <t>5,89; 13,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,71; 14,42</t>
+          <t>12,01; 22,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,29; 14,58</t>
+          <t>13,48; 25,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,8; 13,15</t>
+          <t>8,04; 14,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,08; 13,29</t>
+          <t>7,27; 14,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,14; 13,25</t>
+          <t>7,19; 12,87</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,91; 14,41</t>
+          <t>7,0; 12,86</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,59; 13,07</t>
+          <t>6,56; 14,38</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>8,36; 13,27</t>
+          <t>6,2; 13,81</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>8,57; 13,72</t>
+          <t>7,26; 16,04</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>10,42; 16,44</t>
+          <t>8,89; 14,55</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>8,04; 13,47</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>8,48; 13,48</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>8,7; 13,62</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>6,92; 12,92</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>10,42; 16,64</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>11,93; 18,86</t>
         </is>
       </c>
     </row>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>15,81%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13,74%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10,54%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12,15%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>17,72%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16,69%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16,68%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19,91%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18,13%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>17,87%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>21,47%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>13,39%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>16,28%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>17,52%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>17,93%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>15,98%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>14,26%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>16,85%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
           <t>15,67%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>14,42%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>11,08%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>17,72%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>16,68%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>19,49%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>18,09%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>17,78%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>13,39%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>17,52%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>17,66%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>16,29%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>14,47%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>15,67%</t>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>16,49%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,83; 25,89</t>
+          <t>13,37; 24,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,42; 20,37</t>
+          <t>11,67; 20,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,38; 19,38</t>
+          <t>10,16; 18,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,65; 15,15</t>
+          <t>7,45; 14,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,91; 23,95</t>
+          <t>8,0; 16,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,99; 20,67</t>
+          <t>12,66; 23,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,31; 24,56</t>
+          <t>11,75; 22,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,9; 22,54</t>
+          <t>13,07; 21,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,93; 21,79</t>
+          <t>15,28; 24,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,93; 18,07</t>
+          <t>14,53; 22,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,6; 20,9</t>
+          <t>14,32; 22,15</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,54; 20,86</t>
+          <t>17,01; 26,48</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>13,62; 19,49</t>
+          <t>9,13; 19,4</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>11,96; 17,43</t>
+          <t>11,79; 21,37</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>12,4; 19,23</t>
+          <t>14,7; 21,54</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>14,97; 21,08</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>13,33; 18,67</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>11,72; 16,92</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>13,83; 20,23</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>12,11; 19,31</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>13,0; 20,24</t>
         </is>
       </c>
     </row>
@@ -1365,72 +1654,102 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>57,92%</t>
+          <t>58,86%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>62,54%</t>
+          <t>62,85%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>64,59%</t>
+          <t>64,89%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>56,12%</t>
+          <t>79,92%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>56,14%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>54,7%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>74,04%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>72,8%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>70,82%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>71,5%</t>
+          <t>72,6%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>62,83%</t>
+          <t>71,09%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
+          <t>71,82%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>87,24%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>62,84%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>64,9%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
           <t>65,2%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>65,51%</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>66,68%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>68,11%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>59,63%</t>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>65,85%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>66,96%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>68,42%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>83,66%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>59,64%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>59,89%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>49,22; 63,92</t>
+          <t>49,63; 63,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,98; 64,73</t>
+          <t>51,23; 65,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>55,73; 68,8</t>
+          <t>56,68; 69,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>58,09; 70,61</t>
+          <t>58,28; 71,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>48,78; 63,29</t>
+          <t>73,77; 85,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>67,87; 79,28</t>
+          <t>48,67; 63,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>66,94; 78,45</t>
+          <t>47,91; 62,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>65,47; 75,71</t>
+          <t>68,76; 79,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>65,5; 76,84</t>
+          <t>66,74; 78,21</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>55,77; 69,48</t>
+          <t>65,2; 76,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>60,34; 69,73</t>
+          <t>66,06; 76,9</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>60,21; 70,15</t>
+          <t>81,87; 91,59</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>61,94; 70,69</t>
+          <t>56,5; 69,3</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>63,66; 72,11</t>
+          <t>58,66; 71,23</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>54,49; 64,78</t>
+          <t>60,47; 69,4</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>60,86; 70,1</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>62,17; 70,76</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>64,23; 72,82</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>79,55; 86,86</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>54,51; 64,27</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>54,52; 64,69</t>
         </is>
       </c>
     </row>
@@ -1540,67 +1889,97 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>94,11%</t>
+          <t>94,39%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>95,48%</t>
+          <t>95,61%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>99,39%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>97,33%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>94,21%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>93,89%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>94,23%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>91,06%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>92,32%</t>
-        </is>
-      </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>95,23%</t>
+          <t>91,08%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
+          <t>92,16%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>94,1%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>95,24%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>94,69%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
           <t>95,16%</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>94,5%</t>
         </is>
       </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>92,37%</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>93,68%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>96,12%</t>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>92,51%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>93,65%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>96,41%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>96,13%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>94,49%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1992,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>93,49; 98,68</t>
+          <t>94,24; 98,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>83,3; 98,48</t>
+          <t>85,01; 98,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>87,53; 97,18</t>
+          <t>88,13; 97,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>91,82; 97,79</t>
+          <t>92,25; 98,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>93,07; 99,1</t>
+          <t>97,07; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>90,75; 96,24</t>
+          <t>92,91; 99,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>90,38; 96,97</t>
+          <t>89,59; 97,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>87,05; 94,28</t>
+          <t>90,55; 96,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>88,09; 95,32</t>
+          <t>90,45; 96,73</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>90,43; 98,15</t>
+          <t>87,28; 94,27</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>92,93; 96,77</t>
+          <t>88,29; 94,91</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>90,55; 96,7</t>
+          <t>88,96; 97,31</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>89,3; 94,97</t>
+          <t>90,6; 98,06</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>90,79; 95,79</t>
+          <t>88,01; 97,65</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>93,39; 98,23</t>
+          <t>93,0; 96,78</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>90,63; 96,71</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>88,96; 94,68</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>91,13; 95,71</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>93,18; 98,17</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>92,91; 97,95</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>90,44; 96,74</t>
         </is>
       </c>
     </row>
@@ -1705,72 +2114,102 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>34,75%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>34,59%</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>34,62%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>34,65%</t>
+          <t>34,64%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>39,26%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>36,3%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>35,98%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>39,02%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>39,08%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>36,78%</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>37,15%</t>
+          <t>39,14%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>38,8%</t>
+          <t>36,82%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
+          <t>37,21%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>42,7%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>38,81%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>39,42%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
           <t>37,1%</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>36,89%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>35,73%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>35,93%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>37,0%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>35,72%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>35,95%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>41,02%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
         <is>
           <t>37,56%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>37,7%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>32,26; 37,99</t>
+          <t>32,43; 37,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>31,29; 37,64</t>
+          <t>31,83; 37,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31,93; 37,5</t>
+          <t>31,77; 37,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31,82; 37,8</t>
+          <t>31,71; 37,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>33,28; 39,72</t>
+          <t>35,54; 42,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>36,6; 41,68</t>
+          <t>32,94; 39,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>36,17; 41,85</t>
+          <t>32,79; 39,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>34,42; 39,44</t>
+          <t>36,52; 41,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>34,62; 40,07</t>
+          <t>36,59; 42,16</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>35,54; 42,08</t>
+          <t>34,31; 39,32</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>35,34; 39,05</t>
+          <t>34,76; 39,9</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>34,74; 38,8</t>
+          <t>39,6; 45,69</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>33,72; 37,64</t>
+          <t>35,6; 42,41</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>34,07; 37,88</t>
+          <t>36,28; 42,5</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>35,24; 40,08</t>
+          <t>35,48; 39,01</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>34,73; 38,89</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>33,97; 37,7</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>33,97; 37,9</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>38,67; 43,55</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>35,22; 40,01</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>35,31; 39,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas &gt; 60 años (tasa de respuesta: 99,79%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>84478</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>95065</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>93015</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>130875</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>123511</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6240</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8309</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>78615</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>65866</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>79835</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>67412</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>115026</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>7837</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>5575</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>163094</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>160932</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>172850</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>198287</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>238537</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>14078</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>13884</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>58973; 114606</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>66278; 131971</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>60766; 131260</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>92931; 173397</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>86029; 169871</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3923; 9728</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5280; 12114</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>53572; 108988</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>44636; 98104</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>54709; 109990</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>43788; 95886</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>79829; 152800</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>5222; 10865</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3665; 8294</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>128480; 208407</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>123217; 207682</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>134319; 222870</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>151253; 251963</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>187095; 298403</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>10279; 18758</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>10443; 18742</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>107197</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>119517</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>113201</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>84625</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>120213</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>12423</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11282</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>80960</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>87566</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>65272</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>78089</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>69914</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>6353</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>188158</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>207083</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>178473</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>162714</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>190127</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>18776</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>75616; 148139</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>84793; 157733</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>83768; 149633</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>55156; 118382</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>76908; 164330</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8436; 16783</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7774; 16276</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>59676; 111369</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>62616; 118137</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>43818; 90663</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>54165; 106774</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>43148; 98782</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>4377; 9066</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>5412; 10545</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>145375; 233021</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>158532; 255486</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>140256; 221836</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>126192; 203274</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>140408; 247999</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>14254; 23935</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>14242; 24076</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>81688</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>70287</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>82452</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>83506</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>62151</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9998</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11078</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>74479</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>75936</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>69775</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>69534</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>68821</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5204</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>5978</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>156167</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>146222</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>152226</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>153040</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>130972</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>15202</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>17056</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>56220; 117448</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>45451; 100755</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>57351; 114398</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>59790; 114347</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>39409; 90671</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7233; 13419</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8068; 15297</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>55810; 101782</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>51618; 104045</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>51492; 92225</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>49858; 91546</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>46533; 101946</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>3341; 7445</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>3889; 8592</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>121785; 199369</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>111816; 187472</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>118470; 188382</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>121119; 189585</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>95356; 178055</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>11893; 18988</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>13536; 21394</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>117802</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>101634</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>88515</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>67176</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>78517</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>10323</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>9467</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>117330</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>136496</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>121391</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>117303</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>141206</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>7022</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>8571</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>235132</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>238130</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>209906</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>184479</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>219724</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>17345</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>18038</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>85387; 157292</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>74989; 133685</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>65432; 116606</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>47491; 90612</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>51701; 109508</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>7376; 13436</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6663; 12588</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>91941; 149843</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>104764; 167851</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>97281; 148193</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>93954; 145358</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>111833; 174148</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>4784; 10173</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>6207; 11248</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>197221; 288955</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>198897; 279969</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>175168; 245254</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>151535; 218806</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>180348; 263850</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>13407; 21379</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>14217; 22132</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>312.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>279.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>344.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>349.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>289302</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>288980</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>315684</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>319239</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>395624</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>24975</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>24546</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>372018</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>369554</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>355158</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>367596</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>450955</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>30649</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>30130</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>661320</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>658533</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>670842</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>686835</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>846578</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>55624</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>54676</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>254047; 322883</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>251521; 321762</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>284702; 346684</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>286721; 349872</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>365206; 420811</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>21653; 28191</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>21501; 27928</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>345485; 398494</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>339761; 398112</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>325706; 383312</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>338116; 393603</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>423217; 473428</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>27556; 33800</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>27233; 33065</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>613411; 703915</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>608562; 701054</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>622845; 708933</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>644698; 730942</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>804969; 878967</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>50831; 59935</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>49777; 59061</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>272.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>481.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>371.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>415.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>406.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>277.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>296.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>529693</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>517162</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>496764</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>505827</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>562944</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>45589</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>43001</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>686431</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>676336</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>630582</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>638359</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>687033</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>60688</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>60292</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>1216123</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>1193497</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>1127346</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>1144186</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>1249977</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>106277</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>103293</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>515371; 540019</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>463483; 535997</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>463793; 511675</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>488069; 518863</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>549803; 566402</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>43519; 46470</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>40890; 44410</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>662028; 703376</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>649200; 694227</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>604306; 652703</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>611577; 657371</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>649469; 710458</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>57732; 62485</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>56042; 62181</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>1188510; 1236746</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>1144547; 1221356</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>1084135; 1153767</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>1113354; 1169336</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>1208081; 1272820</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>102720; 108289</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>98872; 105748</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>491.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>423.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>490.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>473.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>404.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>349.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>346.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>606.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>500.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>567.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>568.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>449.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>354.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>399.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>1097.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>923.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>1057.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>1041.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>853.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>703.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>745.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1210160</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1192644</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1189631</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1191249</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1342961</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>109548</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>107683</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1409833</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1411754</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1322012</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1338293</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1532954</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>117753</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>118266</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>2619993</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>2604398</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>2511643</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>2529542</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>2875915</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>227302</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>225949</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1118521; 1301632</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1092455; 1303997</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1092786; 1284060</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1090550; 1291092</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1215671; 1454484</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>99408; 119294</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>98123; 117585</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1319203; 1497546</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1319655; 1520831</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1231910; 1411753</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1250089; 1434970</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1421650; 1640377</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>108033; 128678</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>108847; 127489</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>2505373; 2754721</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>2445038; 2737397</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>2388233; 2650524</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>2389834; 2666835</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>2711000; 3052913</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>213123; 242130</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>211614; 239428</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>